--- a/data/hetong.xlsx
+++ b/data/hetong.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuyonggang\PycharmProjects\python_learn\Test_framework\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuyonggang\PycharmProjects\python_learn\HT_Auto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6DD2A907-3FF1-4BA4-A4FE-350EF5292372}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{14B6281C-EB41-4792-AA9B-38560FC7B4D3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +68,15 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -94,7 +103,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -105,6 +114,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -479,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -513,6 +525,9 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
